--- a/src/com/intelegencia/tests/XLdata/lms.xlsx
+++ b/src/com/intelegencia/tests/XLdata/lms.xlsx
@@ -9,12 +9,8 @@
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D24"/>
 </workbook>
 </file>
 
@@ -544,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -600,20 +596,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -621,424 +603,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T98"/>
+  <dimension ref="B2:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="18" width="25.42578125" customWidth="1"/>
-    <col min="19" max="19" width="28" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="19" width="25.42578125" customWidth="1"/>
+    <col min="20" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P4" s="3">
         <v>41513</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q4" s="4">
         <v>0.84375</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R4" t="s">
         <v>23</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T4" t="s">
         <v>28</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F14" s="3">
         <v>41544</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G14" s="4">
         <v>0.84375</v>
       </c>
     </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F20" s="3">
         <v>41544</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G20" s="4">
         <v>0.84375</v>
       </c>
     </row>
-    <row r="22" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>